--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지12.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC69C3A-CAE2-416C-AF78-D6F6549A22D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA3DD3F-1539-4EEB-AD5C-879EB96F9E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1494">
   <si>
     <t>Time</t>
   </si>
@@ -4516,6 +4516,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -4887,20 +4890,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="60.875" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4914,10 +4916,10 @@
         <v>1492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5229,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5277,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5388,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5403,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5418,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5637,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -5967,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6120,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6546,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -7203,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -7218,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7323,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -7353,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -7368,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -7413,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -7428,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -7458,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -7629,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -7764,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -7869,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -7944,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -7959,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -8064,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -8124,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>420</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>426</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>432</v>
       </c>
@@ -8244,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>434</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -8274,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>438</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -8334,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -8397,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -8412,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -8427,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -8442,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -8472,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -8577,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -8592,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -8610,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -8640,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>485</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>487</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>488</v>
       </c>
@@ -8700,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>490</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>492</v>
       </c>
@@ -8730,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>494</v>
       </c>
@@ -8745,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>496</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>498</v>
       </c>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>500</v>
       </c>
@@ -8793,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>502</v>
       </c>
@@ -8811,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>504</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>505</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>507</v>
       </c>
@@ -8859,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>509</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>511</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>513</v>
       </c>
@@ -8904,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>514</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>516</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>518</v>
       </c>
@@ -8949,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>520</v>
       </c>
@@ -8964,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>522</v>
       </c>
@@ -8979,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>524</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>526</v>
       </c>
@@ -9012,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>528</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>530</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>532</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -9087,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>538</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>544</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>546</v>
       </c>
@@ -9165,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>548</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>550</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>552</v>
       </c>
@@ -9210,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>554</v>
       </c>
@@ -9225,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>556</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>558</v>
       </c>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>562</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>564</v>
       </c>
@@ -9300,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>566</v>
       </c>
@@ -9315,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>568</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>570</v>
       </c>
@@ -9345,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>572</v>
       </c>
@@ -9360,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>574</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>576</v>
       </c>
@@ -9390,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>578</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>580</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>582</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>584</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>586</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>588</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>590</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>592</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>594</v>
       </c>
@@ -9525,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>596</v>
       </c>
@@ -9540,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>598</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>600</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>602</v>
       </c>
@@ -9585,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>604</v>
       </c>
@@ -9600,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>606</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>608</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>610</v>
       </c>
@@ -9645,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>612</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>614</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>616</v>
       </c>
@@ -9690,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>618</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>620</v>
       </c>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>622</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>624</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>626</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>628</v>
       </c>
@@ -9780,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>630</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>632</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>634</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>636</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>638</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>640</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>642</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>644</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>646</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>648</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>650</v>
       </c>
@@ -9951,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>652</v>
       </c>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>654</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>656</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>658</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>660</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>662</v>
       </c>
@@ -10044,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>664</v>
       </c>
@@ -10062,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>666</v>
       </c>
@@ -10080,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>668</v>
       </c>
@@ -10095,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>670</v>
       </c>
@@ -10110,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>672</v>
       </c>
@@ -10125,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>674</v>
       </c>
@@ -10140,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>676</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>678</v>
       </c>
@@ -10170,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>680</v>
       </c>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>682</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>684</v>
       </c>
@@ -10218,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>686</v>
       </c>
@@ -10233,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>688</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>690</v>
       </c>
@@ -10263,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>692</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>694</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>696</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>698</v>
       </c>
@@ -10323,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>700</v>
       </c>
@@ -10338,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>702</v>
       </c>
@@ -10353,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>704</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>706</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>708</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>710</v>
       </c>
@@ -10416,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>712</v>
       </c>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>714</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>716</v>
       </c>
@@ -10464,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>718</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>720</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>722</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>724</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>726</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>728</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>730</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>732</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>734</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>736</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>738</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>740</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>742</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>744</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>746</v>
       </c>
@@ -10689,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>748</v>
       </c>
@@ -10704,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>750</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>752</v>
       </c>
@@ -10737,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>754</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>756</v>
       </c>
@@ -10770,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>758</v>
       </c>
@@ -10785,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>760</v>
       </c>
@@ -10800,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>762</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>764</v>
       </c>
@@ -10830,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>766</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>768</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>770</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>772</v>
       </c>
@@ -10890,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>774</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>776</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>778</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>780</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>782</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>784</v>
       </c>
@@ -10980,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>786</v>
       </c>
@@ -10995,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>788</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>790</v>
       </c>
@@ -11028,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>792</v>
       </c>
@@ -11043,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>794</v>
       </c>
@@ -11058,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>796</v>
       </c>
@@ -11073,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>798</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>800</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>802</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>803</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>805</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>807</v>
       </c>
@@ -11166,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>809</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>811</v>
       </c>
@@ -11199,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>813</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>815</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>817</v>
       </c>
@@ -11244,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>819</v>
       </c>
@@ -11262,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>821</v>
       </c>
@@ -11280,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>823</v>
       </c>
@@ -11295,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>825</v>
       </c>
@@ -11310,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>827</v>
       </c>
@@ -11325,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>829</v>
       </c>
@@ -11340,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>831</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>833</v>
       </c>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>835</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>837</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>838</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>840</v>
       </c>
@@ -11436,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>842</v>
       </c>
@@ -11451,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>844</v>
       </c>
@@ -11466,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>846</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>848</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>850</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>852</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>854</v>
       </c>
@@ -11544,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>856</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>858</v>
       </c>
@@ -11574,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>860</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>862</v>
       </c>
@@ -11604,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>864</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>866</v>
       </c>
@@ -11637,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>868</v>
       </c>
@@ -11652,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>870</v>
       </c>
@@ -11667,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>872</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>874</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>876</v>
       </c>
@@ -11712,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>878</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>880</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>882</v>
       </c>
@@ -11760,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>884</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>886</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>888</v>
       </c>
@@ -11805,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>890</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>892</v>
       </c>
@@ -11835,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>894</v>
       </c>
@@ -11850,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>896</v>
       </c>
@@ -11865,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>898</v>
       </c>
@@ -11880,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>900</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>902</v>
       </c>
@@ -11910,7 +11912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>904</v>
       </c>
@@ -11925,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>906</v>
       </c>
@@ -11940,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>908</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>910</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>912</v>
       </c>
@@ -11985,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>914</v>
       </c>
@@ -12000,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>916</v>
       </c>
@@ -12015,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>918</v>
       </c>
@@ -12030,7 +12032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>920</v>
       </c>
@@ -12045,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>922</v>
       </c>
@@ -12060,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>924</v>
       </c>
@@ -12075,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>926</v>
       </c>
@@ -12090,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>928</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>930</v>
       </c>
@@ -12123,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>932</v>
       </c>
@@ -12138,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>934</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>936</v>
       </c>
@@ -12168,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>938</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>940</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>942</v>
       </c>
@@ -12213,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>944</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>946</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>948</v>
       </c>
@@ -12258,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>950</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>952</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>954</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>956</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>958</v>
       </c>
@@ -12336,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>960</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>962</v>
       </c>
@@ -12366,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>964</v>
       </c>
@@ -12381,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>966</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>968</v>
       </c>
@@ -12411,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>970</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>972</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>974</v>
       </c>
@@ -12459,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>976</v>
       </c>
@@ -12474,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>978</v>
       </c>
@@ -12492,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>980</v>
       </c>
@@ -12510,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>982</v>
       </c>
@@ -12525,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>984</v>
       </c>
@@ -12540,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>986</v>
       </c>
@@ -12555,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>988</v>
       </c>
@@ -12570,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>990</v>
       </c>
@@ -12585,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>992</v>
       </c>
@@ -12600,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>994</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>996</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>998</v>
       </c>
@@ -12648,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1000</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1002</v>
       </c>
@@ -12681,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1004</v>
       </c>
@@ -12696,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1006</v>
       </c>
@@ -12711,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1008</v>
       </c>
@@ -12726,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1010</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1012</v>
       </c>
@@ -12759,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1014</v>
       </c>
@@ -12774,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1016</v>
       </c>
@@ -12789,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1018</v>
       </c>
@@ -12804,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1020</v>
       </c>
@@ -12819,7 +12821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1022</v>
       </c>
@@ -12834,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1024</v>
       </c>
@@ -12849,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1026</v>
       </c>
@@ -12864,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1028</v>
       </c>
@@ -12879,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1030</v>
       </c>
@@ -12894,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1032</v>
       </c>
@@ -12909,7 +12911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1034</v>
       </c>
@@ -12924,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1036</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1038</v>
       </c>
@@ -12954,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1040</v>
       </c>
@@ -12969,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1042</v>
       </c>
@@ -12984,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1044</v>
       </c>
@@ -12999,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1045</v>
       </c>
@@ -13014,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1047</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1048</v>
       </c>
@@ -13044,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1050</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1052</v>
       </c>
@@ -13074,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1054</v>
       </c>
@@ -13089,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1056</v>
       </c>
@@ -13104,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1058</v>
       </c>
@@ -13119,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1060</v>
       </c>
@@ -13134,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1062</v>
       </c>
@@ -13152,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1064</v>
       </c>
@@ -13167,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1066</v>
       </c>
@@ -13182,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1068</v>
       </c>
@@ -13197,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1070</v>
       </c>
@@ -13212,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1072</v>
       </c>
@@ -13227,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1074</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1076</v>
       </c>
@@ -13257,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1078</v>
       </c>
@@ -13272,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1080</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1082</v>
       </c>
@@ -13302,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1084</v>
       </c>
@@ -13317,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1086</v>
       </c>
@@ -13332,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1088</v>
       </c>
@@ -13347,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1090</v>
       </c>
@@ -13362,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1092</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1094</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1096</v>
       </c>
@@ -13407,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1098</v>
       </c>
@@ -13422,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1100</v>
       </c>
@@ -13440,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1102</v>
       </c>
@@ -13455,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1104</v>
       </c>
@@ -13470,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1106</v>
       </c>
@@ -13485,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1108</v>
       </c>
@@ -13500,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1110</v>
       </c>
@@ -13515,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1112</v>
       </c>
@@ -13530,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1114</v>
       </c>
@@ -13545,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1116</v>
       </c>
@@ -13560,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1118</v>
       </c>
@@ -13578,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1120</v>
       </c>
@@ -13593,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1122</v>
       </c>
@@ -13608,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1124</v>
       </c>
@@ -13623,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1126</v>
       </c>
@@ -13638,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1128</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1130</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1132</v>
       </c>
@@ -13683,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1134</v>
       </c>
@@ -13698,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1136</v>
       </c>
@@ -13713,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1138</v>
       </c>
@@ -13728,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1140</v>
       </c>
@@ -13746,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1142</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1144</v>
       </c>
@@ -13776,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1146</v>
       </c>
@@ -13794,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1148</v>
       </c>
@@ -13812,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1150</v>
       </c>
@@ -13827,7 +13829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1152</v>
       </c>
@@ -13842,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1154</v>
       </c>
@@ -13857,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1156</v>
       </c>
@@ -13872,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1158</v>
       </c>
@@ -13887,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1160</v>
       </c>
@@ -13902,7 +13904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1162</v>
       </c>
@@ -13920,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1164</v>
       </c>
@@ -13935,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1166</v>
       </c>
@@ -13950,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1168</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1170</v>
       </c>
@@ -13980,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1172</v>
       </c>
@@ -13995,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1174</v>
       </c>
@@ -14010,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1176</v>
       </c>
@@ -14025,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1178</v>
       </c>
@@ -14040,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1180</v>
       </c>
@@ -14055,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1182</v>
       </c>
@@ -14070,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1184</v>
       </c>
@@ -14085,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1186</v>
       </c>
@@ -14103,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1188</v>
       </c>
@@ -14118,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1190</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1192</v>
       </c>
@@ -14148,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1194</v>
       </c>
@@ -14163,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1196</v>
       </c>
@@ -14178,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1198</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1200</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1202</v>
       </c>
@@ -14223,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1204</v>
       </c>
@@ -14238,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1206</v>
       </c>
@@ -14253,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1208</v>
       </c>
@@ -14268,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1210</v>
       </c>
@@ -14283,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1212</v>
       </c>
@@ -14298,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1214</v>
       </c>
@@ -14313,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1216</v>
       </c>
@@ -14331,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1218</v>
       </c>
@@ -14346,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1220</v>
       </c>
@@ -14361,7 +14363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1222</v>
       </c>
@@ -14376,7 +14378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1224</v>
       </c>
@@ -14391,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1226</v>
       </c>
@@ -14406,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1228</v>
       </c>
@@ -14421,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1230</v>
       </c>
@@ -14436,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1232</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1234</v>
       </c>
@@ -14466,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1236</v>
       </c>
@@ -14481,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1238</v>
       </c>
@@ -14496,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1240</v>
       </c>
@@ -14511,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1242</v>
       </c>
@@ -14526,7 +14528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1244</v>
       </c>
@@ -14541,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1246</v>
       </c>
@@ -14556,7 +14558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1248</v>
       </c>
@@ -14571,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1250</v>
       </c>
@@ -14586,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1252</v>
       </c>
@@ -14601,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1254</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1256</v>
       </c>
@@ -14634,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1258</v>
       </c>
@@ -14649,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1260</v>
       </c>
@@ -14664,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1262</v>
       </c>
@@ -14679,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1264</v>
       </c>
@@ -14694,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1266</v>
       </c>
@@ -14709,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1268</v>
       </c>
@@ -14724,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1270</v>
       </c>
@@ -14739,7 +14741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1272</v>
       </c>
@@ -14754,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1274</v>
       </c>
@@ -14769,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1276</v>
       </c>
@@ -14784,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1278</v>
       </c>
@@ -14799,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1280</v>
       </c>
@@ -14814,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1282</v>
       </c>
@@ -14829,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1284</v>
       </c>
@@ -14847,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1286</v>
       </c>
@@ -14862,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1288</v>
       </c>
@@ -14880,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1290</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1292</v>
       </c>
@@ -14913,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1294</v>
       </c>
@@ -14928,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1296</v>
       </c>
@@ -14943,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1298</v>
       </c>
@@ -14961,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1300</v>
       </c>
@@ -14976,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1302</v>
       </c>
@@ -14991,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1304</v>
       </c>
@@ -15006,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1306</v>
       </c>
@@ -15021,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1308</v>
       </c>
@@ -15036,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1310</v>
       </c>
@@ -15051,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1312</v>
       </c>
@@ -15066,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1314</v>
       </c>
@@ -15081,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1316</v>
       </c>
@@ -15096,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1318</v>
       </c>
@@ -15114,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1320</v>
       </c>
@@ -15129,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1322</v>
       </c>
@@ -15144,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1324</v>
       </c>
@@ -15159,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1326</v>
       </c>
@@ -15174,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1328</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1330</v>
       </c>
@@ -15204,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1332</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1334</v>
       </c>
@@ -15234,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1336</v>
       </c>
@@ -15249,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1338</v>
       </c>
@@ -15264,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1340</v>
       </c>
@@ -15279,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1342</v>
       </c>
@@ -15294,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1344</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1346</v>
       </c>
@@ -15324,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1348</v>
       </c>
@@ -15339,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1350</v>
       </c>
@@ -15354,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1352</v>
       </c>
@@ -15369,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1354</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1356</v>
       </c>
@@ -15405,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1358</v>
       </c>
@@ -15420,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1360</v>
       </c>
@@ -15435,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1362</v>
       </c>
@@ -15450,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1364</v>
       </c>
@@ -15465,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1366</v>
       </c>
@@ -15480,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1368</v>
       </c>
@@ -15498,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1370</v>
       </c>
@@ -15513,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1372</v>
       </c>
@@ -15528,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1374</v>
       </c>
@@ -15543,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1376</v>
       </c>
@@ -15558,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1378</v>
       </c>
@@ -15573,7 +15575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1380</v>
       </c>
@@ -15588,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1382</v>
       </c>
@@ -15603,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1384</v>
       </c>
@@ -15621,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1386</v>
       </c>
@@ -15636,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1388</v>
       </c>
@@ -15651,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1390</v>
       </c>
@@ -15666,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1392</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1394</v>
       </c>
@@ -15699,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1396</v>
       </c>
@@ -15714,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1398</v>
       </c>
@@ -15732,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1400</v>
       </c>
@@ -15750,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1402</v>
       </c>
@@ -15765,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1404</v>
       </c>
@@ -15780,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1406</v>
       </c>
@@ -15795,7 +15797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1407</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1409</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1411</v>
       </c>
@@ -15840,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1413</v>
       </c>
@@ -15855,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1415</v>
       </c>
@@ -15870,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1417</v>
       </c>
@@ -15885,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1419</v>
       </c>
@@ -15900,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1421</v>
       </c>
@@ -15915,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1423</v>
       </c>
@@ -15930,7 +15932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1425</v>
       </c>
@@ -15945,7 +15947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1427</v>
       </c>
@@ -15960,7 +15962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1429</v>
       </c>
@@ -15975,7 +15977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1431</v>
       </c>
@@ -15990,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1433</v>
       </c>
@@ -16005,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1434</v>
       </c>
@@ -16020,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1436</v>
       </c>
@@ -16035,7 +16037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1438</v>
       </c>
@@ -16050,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1440</v>
       </c>
@@ -16065,7 +16067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1442</v>
       </c>
@@ -16080,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1444</v>
       </c>
@@ -16095,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1446</v>
       </c>
@@ -16110,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1448</v>
       </c>
@@ -16125,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1450</v>
       </c>
@@ -16140,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1452</v>
       </c>
@@ -16155,7 +16157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1454</v>
       </c>
@@ -16170,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1456</v>
       </c>
@@ -16185,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1458</v>
       </c>
@@ -16200,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1460</v>
       </c>
@@ -16215,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1462</v>
       </c>
@@ -16230,7 +16232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1464</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1466</v>
       </c>
@@ -16260,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1468</v>
       </c>
@@ -16275,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1470</v>
       </c>
@@ -16290,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1472</v>
       </c>
@@ -16305,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1474</v>
       </c>
@@ -16320,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1476</v>
       </c>
@@ -16335,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1478</v>
       </c>
@@ -16350,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1480</v>
       </c>
@@ -16365,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1482</v>
       </c>
@@ -16380,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1484</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1486</v>
       </c>
@@ -16410,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1488</v>
       </c>
@@ -16428,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1490</v>
       </c>
@@ -16447,16 +16449,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E752" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E752" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지12.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F75EDB2-1D98-43F5-A3FA-84070C47E9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E566E-B19D-45A7-B1FA-219EAB1C37AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1851" yWindow="1851" windowWidth="16329" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4893,7 +4893,7 @@
   <dimension ref="A1:F752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4934,7 +4934,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4949,11 +4948,10 @@
         <v>1.384762022644281E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4968,11 +4966,10 @@
         <v>1.430788915604353E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4987,11 +4984,10 @@
         <v>1.3585286214947701E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5006,11 +5002,10 @@
         <v>1.374667044728994E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5025,11 +5020,10 @@
         <v>1.3939813710749149E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5044,11 +5038,10 @@
         <v>2.3155217990279201E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5063,11 +5056,10 @@
         <v>1.376171503216028E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5082,11 +5074,10 @@
         <v>1.5304995700716971E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5101,11 +5092,10 @@
         <v>1.372126117348671E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5120,11 +5110,10 @@
         <v>0.98535197973251343</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -5142,11 +5131,10 @@
         <v>0.98526579141616821</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -5164,11 +5152,10 @@
         <v>0.31190341711044312</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5183,11 +5170,10 @@
         <v>3.1458668410778053E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5202,11 +5188,10 @@
         <v>2.3177441209554669E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5221,11 +5206,10 @@
         <v>5.9073232114315033E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5240,11 +5224,10 @@
         <v>1.394566800445318E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5259,11 +5242,10 @@
         <v>0.73931437730789185</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -5281,11 +5263,10 @@
         <v>2.644648589193821E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5300,11 +5281,10 @@
         <v>0.98460739850997925</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -5322,11 +5302,10 @@
         <v>1.6729691997170448E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5341,11 +5320,10 @@
         <v>0.2174201309680939</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5360,11 +5338,10 @@
         <v>0.98228627443313599</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -5382,11 +5359,10 @@
         <v>0.98546981811523438</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -5404,11 +5380,10 @@
         <v>3.2544158399105072E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5423,11 +5398,10 @@
         <v>0.12638066709041601</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5442,11 +5416,10 @@
         <v>0.98543661832809448</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28">
@@ -5464,11 +5437,10 @@
         <v>2.1413488313555721E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5483,11 +5455,10 @@
         <v>1.458840444684029E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5502,11 +5473,10 @@
         <v>1.624874584376812E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5521,11 +5491,10 @@
         <v>2.356617338955402E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5540,11 +5509,10 @@
         <v>1.412127912044525E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5559,11 +5527,10 @@
         <v>0.98547643423080444</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34">
@@ -5581,11 +5548,10 @@
         <v>0.98547518253326416</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35">
@@ -5603,11 +5569,10 @@
         <v>1.4004047028720381E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5622,11 +5587,10 @@
         <v>1.383822038769722E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5641,11 +5605,10 @@
         <v>2.0878288894891739E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5660,11 +5623,10 @@
         <v>0.98191249370574951</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39">
@@ -5682,11 +5644,10 @@
         <v>0.98548036813735962</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5701,11 +5662,10 @@
         <v>1.5951057896018032E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5720,11 +5680,10 @@
         <v>0.98467791080474854</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -5742,11 +5701,10 @@
         <v>0.98388266563415527</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -5764,11 +5722,10 @@
         <v>0.98397326469421387</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44">
@@ -5786,11 +5743,10 @@
         <v>0.98320108652114868</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -5808,11 +5764,10 @@
         <v>0.95415353775024414</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -5830,11 +5785,10 @@
         <v>3.0186573043465611E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5849,11 +5803,10 @@
         <v>1.432511582970619E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5868,11 +5821,10 @@
         <v>1.3718861155211931E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5887,11 +5839,10 @@
         <v>1.589634083211422E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5906,11 +5857,10 @@
         <v>0.97648483514785767</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F51">
@@ -5928,11 +5878,10 @@
         <v>0.98544102907180786</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F52">
@@ -5950,11 +5899,10 @@
         <v>0.90914124250411987</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -5972,11 +5920,10 @@
         <v>1.379689574241638E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5991,11 +5938,10 @@
         <v>1.42794968560338E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6010,11 +5956,10 @@
         <v>0.98531448841094971</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6029,11 +5974,10 @@
         <v>1.3851066119968889E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6048,11 +5992,10 @@
         <v>0.98417031764984131</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58">
@@ -6070,11 +6013,10 @@
         <v>0.92474919557571411</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F59">
@@ -6092,11 +6034,10 @@
         <v>1.387867704033852E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6111,11 +6052,10 @@
         <v>5.7713720947504037E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6130,11 +6070,10 @@
         <v>0.98547852039337158</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6149,11 +6088,10 @@
         <v>0.985443115234375</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6168,11 +6106,10 @@
         <v>0.98548132181167603</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6187,11 +6124,10 @@
         <v>6.1700046062469482E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6206,11 +6142,10 @@
         <v>0.98526334762573242</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>1</v>
       </c>
     </row>
@@ -6225,11 +6160,10 @@
         <v>0.98520559072494507</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6244,11 +6178,10 @@
         <v>1.5422306954860691E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6263,11 +6196,10 @@
         <v>0.97004503011703491</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F69">
@@ -6285,11 +6217,10 @@
         <v>2.7165360748767849E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6304,11 +6235,10 @@
         <v>1.363640557974577E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6323,11 +6253,10 @@
         <v>0.98529714345932007</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6342,11 +6271,10 @@
         <v>1.4856374822556971E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6361,11 +6289,10 @@
         <v>1.377879921346903E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6380,11 +6307,10 @@
         <v>0.98548465967178345</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6399,11 +6325,10 @@
         <v>1.406760793179274E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6418,11 +6343,10 @@
         <v>0.98521125316619873</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6437,11 +6361,10 @@
         <v>1.3778493739664549E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6456,11 +6379,10 @@
         <v>1.393344532698393E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6475,11 +6397,10 @@
         <v>1.3784540817141529E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6494,11 +6415,10 @@
         <v>1.386637985706329E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6513,11 +6433,10 @@
         <v>1.3961144722998141E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6532,11 +6451,10 @@
         <v>1.3874382711946961E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6551,11 +6469,10 @@
         <v>1.3845568522810939E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6570,11 +6487,10 @@
         <v>1.369888056069613E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6589,11 +6505,10 @@
         <v>1.384523138403893E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6608,11 +6523,10 @@
         <v>1.497051026672125E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6627,11 +6541,10 @@
         <v>0.9665449857711792</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F88">
@@ -6649,11 +6562,10 @@
         <v>1.411205437034369E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6668,11 +6580,10 @@
         <v>1.3964991085231301E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6687,11 +6598,10 @@
         <v>1.3786746188998221E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6706,11 +6616,10 @@
         <v>4.0328420698642731E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6725,11 +6634,10 @@
         <v>1.37432124465704E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6744,11 +6652,10 @@
         <v>1.3617926277220249E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6763,11 +6670,10 @@
         <v>1.738444343209267E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6782,11 +6688,10 @@
         <v>1.44344549626112E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6801,11 +6706,10 @@
         <v>2.3124756291508671E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6820,11 +6724,10 @@
         <v>0.98539519309997559</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6839,11 +6742,10 @@
         <v>1.363777741789818E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6858,11 +6760,10 @@
         <v>1.3907544314861299E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6877,11 +6778,10 @@
         <v>0.98548406362533569</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6896,11 +6796,10 @@
         <v>1.5809990465641022E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6915,11 +6814,10 @@
         <v>1.37012517079711E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6934,11 +6832,10 @@
         <v>0.70775002241134644</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F104">
@@ -6956,11 +6853,10 @@
         <v>1.6548978164792061E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6975,11 +6871,10 @@
         <v>1.5510656870901579E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6994,11 +6889,10 @@
         <v>0.82004541158676147</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7013,11 +6907,10 @@
         <v>1.3639619573950769E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7032,11 +6925,10 @@
         <v>2.4722902104258541E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7051,11 +6943,10 @@
         <v>1.357858628034592E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7070,11 +6961,10 @@
         <v>1.365912239998579E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7089,11 +6979,10 @@
         <v>1.380672212690115E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7108,11 +6997,10 @@
         <v>3.6656860262155533E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7127,11 +7015,10 @@
         <v>1.381791941821575E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7146,11 +7033,10 @@
         <v>1.419035904109478E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7165,11 +7051,10 @@
         <v>1.42928259447217E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7184,11 +7069,10 @@
         <v>1.380901411175728E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7203,11 +7087,10 @@
         <v>1.3681978918612E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7222,11 +7105,10 @@
         <v>1.3611651957035059E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7241,11 +7123,10 @@
         <v>1.365913543850183E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7260,11 +7141,10 @@
         <v>1.4037772081792349E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7279,11 +7159,10 @@
         <v>2.0949820056557659E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7298,11 +7177,10 @@
         <v>0.87469631433486938</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F123">
@@ -7320,11 +7198,10 @@
         <v>1.413623616099358E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7339,11 +7216,10 @@
         <v>1.4103922992944719E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7358,11 +7234,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7377,11 +7252,10 @@
         <v>1.393712032586336E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7396,11 +7270,10 @@
         <v>1.378140412271023E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7415,11 +7288,10 @@
         <v>3.4364704042673111E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7434,11 +7306,10 @@
         <v>1.36136170476675E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7453,11 +7324,10 @@
         <v>0.98543661832809448</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F131">
@@ -7475,11 +7345,10 @@
         <v>0.98546773195266724</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F132">
@@ -7497,11 +7366,10 @@
         <v>1.435810420662165E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7516,11 +7384,10 @@
         <v>1.3835917226970199E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7535,11 +7402,10 @@
         <v>1.415171567350626E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7554,11 +7420,10 @@
         <v>1.701152324676514E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7573,11 +7438,10 @@
         <v>2.5097077712416649E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7592,11 +7456,10 @@
         <v>4.015059769153595E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7611,11 +7474,10 @@
         <v>0.98547190427780151</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7630,11 +7492,10 @@
         <v>1.386623084545135E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7649,11 +7510,10 @@
         <v>1.3984460383653641E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7668,11 +7528,10 @@
         <v>1.4043846167624E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7687,11 +7546,10 @@
         <v>1.365040708333254E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7706,11 +7564,10 @@
         <v>1.4103558845818039E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7725,11 +7582,10 @@
         <v>1.387007813900709E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7744,11 +7600,10 @@
         <v>1.41178397461772E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7763,11 +7618,10 @@
         <v>0.9853668212890625</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7782,11 +7636,10 @@
         <v>0.93092668056488037</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F148">
@@ -7804,11 +7657,10 @@
         <v>1.432527042925358E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7823,11 +7675,10 @@
         <v>1.3917414471507071E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7842,11 +7693,10 @@
         <v>1.387938763946295E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7861,11 +7711,10 @@
         <v>2.271464467048645E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7880,11 +7729,10 @@
         <v>1.4323216862976549E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7899,11 +7747,10 @@
         <v>1.758823357522488E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7918,11 +7765,10 @@
         <v>1.370116136968136E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7937,11 +7783,10 @@
         <v>1.3728367164731029E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7956,11 +7801,10 @@
         <v>1.3716635294258589E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7975,11 +7819,10 @@
         <v>2.4095093831419941E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7994,11 +7837,10 @@
         <v>1.383532583713531E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8013,11 +7855,10 @@
         <v>1.366916671395302E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8032,11 +7873,10 @@
         <v>1.386366784572601E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8051,11 +7891,10 @@
         <v>1.391012128442526E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8070,11 +7909,10 @@
         <v>0.78173255920410156</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8089,11 +7927,10 @@
         <v>0.98547816276550293</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8108,11 +7945,10 @@
         <v>1.375860348343849E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8127,11 +7963,10 @@
         <v>1.3642332516610621E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8146,11 +7981,10 @@
         <v>2.175768464803696E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8165,11 +7999,10 @@
         <v>0.98033511638641357</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F168">
@@ -8187,11 +8020,10 @@
         <v>1.4882827177643779E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8206,11 +8038,10 @@
         <v>0.98540347814559937</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8225,11 +8056,10 @@
         <v>1.418508309870958E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8244,11 +8074,10 @@
         <v>1.4541228301823139E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8263,11 +8092,10 @@
         <v>2.05996073782444E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8282,11 +8110,10 @@
         <v>0.98524206876754761</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F174">
@@ -8304,11 +8131,10 @@
         <v>1.6696035861968991E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8323,11 +8149,10 @@
         <v>2.3152220994234089E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8342,11 +8167,10 @@
         <v>1.3671154156327249E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8361,11 +8185,10 @@
         <v>1.3831884600222111E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8380,11 +8203,10 @@
         <v>3.0117681249976162E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8399,11 +8221,10 @@
         <v>1.5755347907543179E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8418,11 +8239,10 @@
         <v>1.5840789303183559E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8437,11 +8257,10 @@
         <v>0.98543184995651245</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8456,11 +8275,10 @@
         <v>1.371251977980137E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8475,11 +8293,10 @@
         <v>0.98548537492752075</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8494,11 +8311,10 @@
         <v>1.393846329301596E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8513,11 +8329,10 @@
         <v>0.98548406362533569</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8532,11 +8347,10 @@
         <v>0.98548132181167603</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8551,11 +8365,10 @@
         <v>2.0933076739311222E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8570,11 +8383,10 @@
         <v>3.9560876786708832E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8589,11 +8401,10 @@
         <v>1.513758674263954E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8608,11 +8419,10 @@
         <v>0.98451125621795654</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8627,11 +8437,10 @@
         <v>0.98548269271850586</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8646,11 +8455,10 @@
         <v>0.98431593179702759</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8665,11 +8473,10 @@
         <v>0.98534297943115234</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>1</v>
       </c>
     </row>
@@ -8684,11 +8491,10 @@
         <v>0.98534667491912842</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8703,11 +8509,10 @@
         <v>0.98548001050949097</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8722,11 +8527,10 @@
         <v>0.98440068960189819</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8741,11 +8545,10 @@
         <v>1.395920850336552E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8760,11 +8563,10 @@
         <v>3.4854233264923103E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8779,11 +8581,10 @@
         <v>4.1128654032945633E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8798,11 +8599,10 @@
         <v>0.97767966985702515</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8817,11 +8617,10 @@
         <v>0.98535764217376709</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8836,11 +8635,10 @@
         <v>0.21766407787799841</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8855,11 +8653,10 @@
         <v>0.21756656467914581</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8874,11 +8671,10 @@
         <v>0.98548060655593872</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8893,11 +8689,10 @@
         <v>0.14785914123058319</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,11 +8707,10 @@
         <v>1.4374530874192709E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8931,11 +8725,10 @@
         <v>0.21756656467914581</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8950,11 +8743,10 @@
         <v>1.412687636911869E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8969,11 +8761,10 @@
         <v>1.3734470121562479E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8988,11 +8779,10 @@
         <v>1.3701522722840309E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9007,11 +8797,10 @@
         <v>1.36768314987421E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9026,11 +8815,10 @@
         <v>1.3665123842656611E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9045,11 +8833,10 @@
         <v>1.4269541017711161E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9064,11 +8851,10 @@
         <v>1.5857048332691189E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9083,11 +8869,10 @@
         <v>1.417991612106562E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9102,11 +8887,10 @@
         <v>1.440958119928837E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9121,11 +8905,10 @@
         <v>1.368732750415802E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9140,11 +8923,10 @@
         <v>1.3764608651399611E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9159,11 +8941,10 @@
         <v>1.412313804030418E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9178,11 +8959,10 @@
         <v>1.39080872759223E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9197,11 +8977,10 @@
         <v>1.891318708658218E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9216,11 +8995,10 @@
         <v>1.8917690962553021E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9235,11 +9013,10 @@
         <v>1.368732750415802E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9254,11 +9031,10 @@
         <v>0.2174201309680939</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9273,11 +9049,10 @@
         <v>2.496927231550217E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9292,11 +9067,10 @@
         <v>0.98461031913757324</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F227">
@@ -9314,11 +9088,10 @@
         <v>1.3676685281097891E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9333,11 +9106,10 @@
         <v>1.3725824654102331E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9352,11 +9124,10 @@
         <v>1.4497514814138411E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9371,11 +9142,10 @@
         <v>0.21747387945652011</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9390,11 +9160,10 @@
         <v>1.3697921298444269E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9409,11 +9178,10 @@
         <v>1.3874011114239689E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9428,11 +9196,10 @@
         <v>1.379465125501156E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9447,11 +9214,10 @@
         <v>1.3696734793484209E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9466,11 +9232,10 @@
         <v>1.4025586657226091E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9485,11 +9250,10 @@
         <v>1.3993760570883749E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9504,11 +9268,10 @@
         <v>1.384521089494228E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9523,11 +9286,10 @@
         <v>1.358496118336916E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9542,11 +9304,10 @@
         <v>4.0077008306980133E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9561,11 +9322,10 @@
         <v>0.97516608238220215</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F241">
@@ -9583,11 +9343,10 @@
         <v>1.386178378015757E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9602,11 +9361,10 @@
         <v>2.1160325035452839E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9621,11 +9379,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9640,11 +9397,10 @@
         <v>1.398973353207111E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9659,11 +9415,10 @@
         <v>2.1160325035452839E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9678,11 +9433,10 @@
         <v>2.8114475309848789E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9697,11 +9451,10 @@
         <v>1.436029653996229E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9716,11 +9469,10 @@
         <v>1.36799206957221E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9735,11 +9487,10 @@
         <v>1.521000452339649E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9754,11 +9505,10 @@
         <v>0.98540306091308594</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F251">
@@ -9776,11 +9526,10 @@
         <v>1.566490717232227E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9795,11 +9544,10 @@
         <v>1.4036432839930059E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9814,11 +9562,10 @@
         <v>0.98543268442153931</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F254">
@@ -9836,11 +9583,10 @@
         <v>0.97516608238220215</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F255">
@@ -9858,11 +9604,10 @@
         <v>1.413046941161156E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9877,11 +9622,10 @@
         <v>1.3758149929344651E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9896,11 +9640,10 @@
         <v>6.1001244932413101E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9915,11 +9658,10 @@
         <v>1.3678189367055889E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9934,11 +9676,10 @@
         <v>0.21756656467914581</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9953,11 +9694,10 @@
         <v>1.4292167499661451E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9972,11 +9712,10 @@
         <v>1.366324815899134E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9991,11 +9730,10 @@
         <v>1.368314959108829E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10010,11 +9748,10 @@
         <v>3.7009235471487052E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10029,11 +9766,10 @@
         <v>1.381867378950119E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10048,11 +9784,10 @@
         <v>0.98547714948654175</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F266">
@@ -10070,11 +9805,10 @@
         <v>0.96697402000427246</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10089,11 +9823,10 @@
         <v>1.6292853280901909E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10108,11 +9841,10 @@
         <v>1.3924092054367071E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10127,11 +9859,10 @@
         <v>1.4599533751606939E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10146,11 +9877,10 @@
         <v>1.40685336664319E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10165,11 +9895,10 @@
         <v>1.3801931403577329E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10184,11 +9913,10 @@
         <v>1.371763460338116E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10203,11 +9931,10 @@
         <v>0.98530048131942749</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10222,11 +9949,10 @@
         <v>1.382312551140785E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10241,11 +9967,10 @@
         <v>0.98539954423904419</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10260,11 +9985,10 @@
         <v>0.98520606756210327</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F277">
@@ -10282,11 +10006,10 @@
         <v>1.377056539058685E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10301,11 +10024,10 @@
         <v>1.5207097865641121E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10320,11 +10042,10 @@
         <v>1.4995614066720011E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10339,11 +10060,10 @@
         <v>1.35769322514534E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10358,11 +10078,10 @@
         <v>1.3966068625450131E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10377,11 +10096,10 @@
         <v>1.364746037870646E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10396,11 +10114,10 @@
         <v>1.37875359505415E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10415,11 +10132,10 @@
         <v>1.36458370834589E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10434,11 +10150,10 @@
         <v>1.369447540491819E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10453,11 +10168,10 @@
         <v>1.387583836913109E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10472,11 +10186,10 @@
         <v>1.368445716798306E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10491,11 +10204,10 @@
         <v>1.6099452972412109E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10510,11 +10222,10 @@
         <v>1.417363900691271E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10529,11 +10240,10 @@
         <v>1.6574762761592862E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10548,11 +10258,10 @@
         <v>0.98546159267425537</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10567,11 +10276,10 @@
         <v>1.397416740655899E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10586,11 +10294,10 @@
         <v>2.0567197352647781E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10605,11 +10312,10 @@
         <v>1.3742269016802309E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10624,11 +10330,10 @@
         <v>1.4024117961525921E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10643,11 +10348,10 @@
         <v>1.370574347674847E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10662,11 +10366,10 @@
         <v>3.4018248319625848E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10681,11 +10384,10 @@
         <v>1.8263500183820721E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10700,11 +10402,10 @@
         <v>1.4181136153638359E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10719,11 +10420,10 @@
         <v>1.4028093777596951E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10738,11 +10438,10 @@
         <v>1.380596216768026E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10757,11 +10456,10 @@
         <v>1.381158549338579E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10776,11 +10474,10 @@
         <v>1.7302056774497029E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10795,11 +10492,10 @@
         <v>1.475844718515873E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10814,11 +10510,10 @@
         <v>3.498077392578125E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10833,11 +10528,10 @@
         <v>1.5802919864654541E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10852,11 +10546,10 @@
         <v>1.5643127262592319E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10871,11 +10564,10 @@
         <v>1.379735581576824E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10890,11 +10582,10 @@
         <v>1.511227246373892E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10909,11 +10600,10 @@
         <v>1.442987751215696E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10928,11 +10618,10 @@
         <v>1.363059598952532E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10947,11 +10636,10 @@
         <v>4.2160965502262122E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10966,11 +10654,10 @@
         <v>1.380572840571404E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10985,11 +10672,10 @@
         <v>1.3867847621440889E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11004,11 +10690,10 @@
         <v>1.4250298030674459E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11023,11 +10708,10 @@
         <v>4.1501395404338837E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11042,11 +10726,10 @@
         <v>1.3713791035115721E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11061,11 +10744,10 @@
         <v>1.3922402635216709E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11080,11 +10762,10 @@
         <v>1.3646626845002169E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11099,11 +10780,10 @@
         <v>0.98530685901641846</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F321">
@@ -11121,11 +10801,10 @@
         <v>0.21745805442333219</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -11140,11 +10819,10 @@
         <v>2.663976326584816E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11159,11 +10837,10 @@
         <v>1.370175462216139E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11178,11 +10855,10 @@
         <v>2.05580685287714E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11197,11 +10873,10 @@
         <v>7.8592382371425629E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11216,11 +10891,10 @@
         <v>1.9795306026935581E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11235,11 +10909,10 @@
         <v>6.2871746718883514E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11254,11 +10927,10 @@
         <v>0.92525428533554077</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F329">
@@ -11276,11 +10948,10 @@
         <v>1.3645933009684089E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11295,11 +10966,10 @@
         <v>1.3655673712491989E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11314,11 +10984,10 @@
         <v>6.7369483411312103E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11333,11 +11002,10 @@
         <v>1.435192953795195E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11352,11 +11020,10 @@
         <v>0.76696294546127319</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F334">
@@ -11374,11 +11041,10 @@
         <v>1.46150104701519E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11393,11 +11059,10 @@
         <v>0.98541498184204102</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F336">
@@ -11415,11 +11080,10 @@
         <v>0.98208743333816528</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F337">
@@ -11437,11 +11101,10 @@
         <v>0.98541229963302612</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11456,11 +11119,10 @@
         <v>2.5077043101191521E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11475,11 +11137,10 @@
         <v>1.501375250518322E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11494,11 +11155,10 @@
         <v>1.3771770521998411E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11513,11 +11173,10 @@
         <v>1.9269794225692749E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11532,11 +11191,10 @@
         <v>3.5026952624320977E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11551,11 +11209,10 @@
         <v>3.4945081919431693E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11570,11 +11227,10 @@
         <v>0.98539942502975464</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F345">
@@ -11592,11 +11248,10 @@
         <v>2.5297274813055989E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11611,11 +11266,10 @@
         <v>1.3717189431190491E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11630,11 +11284,10 @@
         <v>1.413324661552906E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11649,11 +11302,10 @@
         <v>1.366691011935472E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11668,11 +11320,10 @@
         <v>1.366797089576721E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11687,11 +11338,10 @@
         <v>1.3639207929372789E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11706,11 +11356,10 @@
         <v>1.36379711329937E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11725,11 +11374,10 @@
         <v>0.98547309637069702</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11744,11 +11392,10 @@
         <v>1.519875228404999E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11763,11 +11410,10 @@
         <v>1.380387879908085E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11782,11 +11428,10 @@
         <v>1.4814937487244609E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11801,11 +11446,10 @@
         <v>0.9851374626159668</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F357">
@@ -11823,11 +11467,10 @@
         <v>1.368596311658621E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11842,11 +11485,10 @@
         <v>1.644589938223362E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11861,11 +11503,10 @@
         <v>0.98532366752624512</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F360">
@@ -11883,11 +11524,10 @@
         <v>1.509709842503071E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11902,11 +11542,10 @@
         <v>2.793178521096706E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11921,11 +11560,10 @@
         <v>2.9663234949111938E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11940,11 +11578,10 @@
         <v>1.361304707825184E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11959,11 +11596,10 @@
         <v>1.8780158832669262E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11978,11 +11614,10 @@
         <v>1.3835630379617211E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11997,11 +11632,10 @@
         <v>1.376342494040728E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12016,11 +11650,10 @@
         <v>1.3721423223614689E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12035,11 +11668,10 @@
         <v>1.3750737532973289E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12054,11 +11686,10 @@
         <v>1.3928362168371679E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12073,11 +11704,10 @@
         <v>1.35927340015769E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12092,11 +11722,10 @@
         <v>1.379840075969696E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12111,11 +11740,10 @@
         <v>1.365386787801981E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12130,11 +11758,10 @@
         <v>0.98547029495239258</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12149,11 +11776,10 @@
         <v>0.89427489042282104</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12168,11 +11794,10 @@
         <v>1.368091721087694E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12187,11 +11812,10 @@
         <v>1.6819212585687641E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12206,11 +11830,10 @@
         <v>1.393171492964029E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12225,11 +11848,10 @@
         <v>0.85286545753479004</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F379">
@@ -12247,11 +11869,10 @@
         <v>1.4544776640832421E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12266,11 +11887,10 @@
         <v>0.867637038230896</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F381">
@@ -12288,11 +11908,10 @@
         <v>1.6367735341191288E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12307,11 +11926,10 @@
         <v>1.387683022767305E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12326,11 +11944,10 @@
         <v>1.372739300131798E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12345,11 +11962,10 @@
         <v>1.8396677449345589E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12364,11 +11980,10 @@
         <v>1.3572015799581999E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -12383,11 +11998,10 @@
         <v>1.364527270197868E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12402,11 +12016,10 @@
         <v>2.368039637804031E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12421,11 +12034,10 @@
         <v>1.377739850431681E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12440,11 +12052,10 @@
         <v>1.373452879488468E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12459,11 +12070,10 @@
         <v>1.484809443354607E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12478,11 +12088,10 @@
         <v>1.362141221761703E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12497,11 +12106,10 @@
         <v>0.98131793737411499</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12516,11 +12124,10 @@
         <v>0.2177639305591583</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12535,11 +12142,10 @@
         <v>1.383822038769722E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12554,11 +12160,10 @@
         <v>4.1642490774393082E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12573,11 +12178,10 @@
         <v>1.367948297411203E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12592,11 +12196,10 @@
         <v>0.92217844724655151</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F398">
@@ -12614,11 +12217,10 @@
         <v>1.3802865520119671E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12633,11 +12235,10 @@
         <v>1.3833354227244851E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12652,11 +12253,10 @@
         <v>1.8289016559720039E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12671,11 +12271,10 @@
         <v>1.363777741789818E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12690,11 +12289,10 @@
         <v>0.88286936283111572</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F403">
@@ -12712,11 +12310,10 @@
         <v>1.3864560984075069E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12731,11 +12328,10 @@
         <v>1.8289016559720039E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12750,11 +12346,10 @@
         <v>1.385487522929907E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12769,11 +12364,10 @@
         <v>1.6278820112347599E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12788,11 +12382,10 @@
         <v>1.3598872348666189E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12807,11 +12400,10 @@
         <v>1.38315400108695E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12826,11 +12418,10 @@
         <v>0.97192174196243286</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F410">
@@ -12848,11 +12439,10 @@
         <v>0.21745668351650241</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12867,11 +12457,10 @@
         <v>1.375582721084356E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12886,11 +12475,10 @@
         <v>0.2167263180017471</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12905,11 +12493,10 @@
         <v>0.98384732007980347</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F414">
@@ -12927,11 +12514,10 @@
         <v>0.96692484617233276</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F415">
@@ -12949,11 +12535,10 @@
         <v>1.3758072629570959E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12968,11 +12553,10 @@
         <v>1.361770275980234E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12987,11 +12571,10 @@
         <v>1.3736525550484661E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13006,11 +12589,10 @@
         <v>3.3651884645223618E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13025,11 +12607,10 @@
         <v>7.1243718266487122E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13044,11 +12625,10 @@
         <v>1.399306301027536E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13063,11 +12643,10 @@
         <v>1.401470508426428E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13082,11 +12661,10 @@
         <v>0.92217844724655151</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F423">
@@ -13104,11 +12682,10 @@
         <v>0.97982442378997803</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F424">
@@ -13126,11 +12703,10 @@
         <v>1.6400277614593509E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13145,11 +12721,10 @@
         <v>1.3834713958203791E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13164,11 +12739,10 @@
         <v>1.3971408829092979E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13183,11 +12757,10 @@
         <v>2.1134883165359501E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13202,11 +12775,10 @@
         <v>0.21730224788188929</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13221,11 +12793,10 @@
         <v>0.95312678813934326</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F430">
@@ -13243,11 +12814,10 @@
         <v>1.388268359005451E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13262,11 +12832,10 @@
         <v>0.217301145195961</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13281,11 +12850,10 @@
         <v>3.9891529828310013E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13300,11 +12868,10 @@
         <v>1.4320961199700831E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13319,11 +12886,10 @@
         <v>1.378358248621225E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13338,11 +12904,10 @@
         <v>1.3785869814455509E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13357,11 +12922,10 @@
         <v>1.385982893407345E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13376,11 +12940,10 @@
         <v>0.95462697744369507</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F438">
@@ -13398,11 +12961,10 @@
         <v>1.4014513231813909E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13417,11 +12979,10 @@
         <v>1.6339415684342381E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13436,11 +12997,10 @@
         <v>1.6924533993005749E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13455,11 +13015,10 @@
         <v>1.3949458487331871E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13474,11 +13033,10 @@
         <v>1.3739031739532949E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13493,11 +13051,10 @@
         <v>1.397271640598774E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13512,11 +13069,10 @@
         <v>0.98501944541931152</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F445">
@@ -13534,11 +13090,10 @@
         <v>1.8655236810445789E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13553,11 +13108,10 @@
         <v>0.98547780513763428</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13572,11 +13126,10 @@
         <v>1.363262161612511E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13591,11 +13144,10 @@
         <v>1.380561199039221E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13610,11 +13162,10 @@
         <v>1.4277974143624309E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13629,11 +13180,10 @@
         <v>1.35965384542942E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13648,11 +13198,10 @@
         <v>1.415079087018967E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13667,11 +13216,10 @@
         <v>1.4109142124652861E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13686,11 +13234,10 @@
         <v>1.3750911690294741E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13705,11 +13252,10 @@
         <v>5.170217901468277E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13724,11 +13270,10 @@
         <v>0.9854741096496582</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13743,11 +13288,10 @@
         <v>1.392365992069244E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13762,11 +13306,10 @@
         <v>1.36552881449461E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13781,11 +13324,10 @@
         <v>1.36186508461833E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13800,11 +13342,10 @@
         <v>0.98494416475296021</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13819,11 +13360,10 @@
         <v>1.4079246670007709E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13838,11 +13378,10 @@
         <v>1.446788292378187E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13857,11 +13396,10 @@
         <v>0.98548024892807007</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13876,11 +13414,10 @@
         <v>0.98547643423080444</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13895,11 +13432,10 @@
         <v>1.409769896417856E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13914,11 +13450,10 @@
         <v>1.496540009975433E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13933,11 +13468,10 @@
         <v>1.3689593411982059E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13952,11 +13486,10 @@
         <v>1.3779886998236179E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13971,11 +13504,10 @@
         <v>1.3543687760829931E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13990,11 +13522,10 @@
         <v>0.98544692993164063</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F470">
@@ -14012,11 +13543,10 @@
         <v>1.926987990736961E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14031,11 +13561,10 @@
         <v>1.379528641700745E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14050,11 +13579,10 @@
         <v>1.382634416222572E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14069,11 +13597,10 @@
         <v>1.6861924901604649E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14088,11 +13615,10 @@
         <v>1.3768855482339861E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14107,11 +13633,10 @@
         <v>4.6158362179994583E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14126,11 +13651,10 @@
         <v>1.37120233848691E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14145,11 +13669,10 @@
         <v>4.5423116534948349E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14164,11 +13687,10 @@
         <v>1.3760720379650589E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14183,11 +13705,10 @@
         <v>0.10792069882154461</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14202,11 +13723,10 @@
         <v>1.9051158800721169E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14221,11 +13741,10 @@
         <v>0.73079597949981689</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14240,11 +13759,10 @@
         <v>0.97787034511566162</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F483">
@@ -14262,11 +13780,10 @@
         <v>0.21716505289077759</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14281,11 +13798,10 @@
         <v>0.9501844048500061</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14300,11 +13816,10 @@
         <v>1.36368153616786E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14319,11 +13834,10 @@
         <v>1.375446282327175E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14338,11 +13852,10 @@
         <v>1.4923598617315291E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14357,11 +13870,10 @@
         <v>1.8434289842844009E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14376,11 +13888,10 @@
         <v>0.98535895347595215</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F490">
@@ -14398,11 +13909,10 @@
         <v>1.3742398470640181E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14417,11 +13927,10 @@
         <v>1.362882740795612E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14436,11 +13945,10 @@
         <v>2.109538018703461E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14455,11 +13963,10 @@
         <v>0.98538196086883545</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F494">
@@ -14477,11 +13984,10 @@
         <v>0.97577285766601563</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F495">
@@ -14499,11 +14005,10 @@
         <v>3.2049980014562607E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14518,11 +14023,10 @@
         <v>1.366718020290136E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14537,11 +14041,10 @@
         <v>1.4121955260634421E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14556,11 +14059,10 @@
         <v>1.36347571387887E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14575,11 +14077,10 @@
         <v>1.393712032586336E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14594,11 +14095,10 @@
         <v>1.3635103590786461E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14613,11 +14113,10 @@
         <v>1.388903055340052E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14632,11 +14131,10 @@
         <v>0.98512613773345947</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F503">
@@ -14654,11 +14152,10 @@
         <v>3.6735180765390403E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14673,11 +14170,10 @@
         <v>5.8399006724357598E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14692,11 +14188,10 @@
         <v>0.95566004514694214</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F506">
@@ -14714,11 +14209,10 @@
         <v>1.370424218475819E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14733,11 +14227,10 @@
         <v>1.3639478012919429E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14752,11 +14245,10 @@
         <v>1.4243787154555321E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14771,11 +14263,10 @@
         <v>0.98535197973251343</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F510">
@@ -14793,11 +14284,10 @@
         <v>1.3606945984065529E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14812,11 +14302,10 @@
         <v>1.3610781170427799E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14831,11 +14320,10 @@
         <v>1.364739704877138E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14850,11 +14338,10 @@
         <v>1.3736879453063009E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14869,11 +14356,10 @@
         <v>1.3653579168021681E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14888,11 +14374,10 @@
         <v>1.4292611740529541E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14907,11 +14392,10 @@
         <v>1.9243903458118439E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14926,11 +14410,10 @@
         <v>1.573609933257103E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14945,11 +14428,10 @@
         <v>1.3588890433311461E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14964,11 +14446,10 @@
         <v>2.2808300331234928E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14983,11 +14464,10 @@
         <v>0.9854087233543396</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15002,11 +14482,10 @@
         <v>1.429110020399094E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15021,11 +14500,10 @@
         <v>1.373252552002668E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15040,11 +14518,10 @@
         <v>1.379042118787766E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15059,11 +14536,10 @@
         <v>1.454329397529364E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15078,11 +14554,10 @@
         <v>1.455591339617968E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15097,11 +14572,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15116,11 +14590,10 @@
         <v>1.6714215278625488E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15135,11 +14608,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15154,11 +14626,10 @@
         <v>1.42495334148407E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15173,11 +14644,10 @@
         <v>1.378751732409E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15192,11 +14662,10 @@
         <v>1.3616940937936309E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15211,11 +14680,10 @@
         <v>1.369934435933828E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15230,11 +14698,10 @@
         <v>1.390473265200853E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15249,11 +14716,10 @@
         <v>1.3836711645126339E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15268,11 +14734,10 @@
         <v>1.379680447280407E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15287,11 +14752,10 @@
         <v>0.93630611896514893</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F537">
@@ -15309,11 +14773,10 @@
         <v>1.4681827276945111E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15328,11 +14791,10 @@
         <v>1.9040560349822041E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15347,11 +14809,10 @@
         <v>2.848893404006958E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15366,11 +14827,10 @@
         <v>3.8886498659849167E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15385,11 +14845,10 @@
         <v>1.6303243115544319E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15404,11 +14863,10 @@
         <v>7.0379093289375305E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15423,11 +14881,10 @@
         <v>1.3763017021119589E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15442,11 +14899,10 @@
         <v>1.3998920097947121E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15461,11 +14917,10 @@
         <v>4.6701017767190933E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15480,11 +14935,10 @@
         <v>1.389004290103912E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15499,11 +14953,10 @@
         <v>1.3772884383797651E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15518,11 +14971,10 @@
         <v>1.5665493905544281E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15537,11 +14989,10 @@
         <v>1.4148774556815621E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15556,11 +15007,10 @@
         <v>1.3653270900249479E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15575,11 +15025,10 @@
         <v>1.384478807449341E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15594,11 +15043,10 @@
         <v>1.4013334177434439E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15613,11 +15061,10 @@
         <v>1.383144780993462E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15632,11 +15079,10 @@
         <v>1.381747797131538E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15651,11 +15097,10 @@
         <v>0.98387801647186279</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F556">
@@ -15673,11 +15118,10 @@
         <v>1.3800944201648241E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15692,11 +15136,10 @@
         <v>1.374242454767227E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15711,11 +15154,10 @@
         <v>0.98540002107620239</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15730,11 +15172,10 @@
         <v>1.3897432014346119E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15749,11 +15190,10 @@
         <v>3.2844264060258872E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15768,11 +15208,10 @@
         <v>1.405235845595598E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15787,11 +15226,10 @@
         <v>1.3789786025881771E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15806,11 +15244,10 @@
         <v>2.886213734745979E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15825,11 +15262,10 @@
         <v>0.98545539379119873</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F565">
@@ -15847,11 +15283,10 @@
         <v>1.369855832308531E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15866,11 +15301,10 @@
         <v>0.9854353666305542</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15885,11 +15319,10 @@
         <v>1.450922340154648E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15904,11 +15337,10 @@
         <v>1.363374479115009E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15923,11 +15355,10 @@
         <v>0.98548358678817749</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15942,11 +15373,10 @@
         <v>0.98543959856033325</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15961,11 +15391,10 @@
         <v>0.97939461469650269</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15980,11 +15409,10 @@
         <v>1.6226079314947128E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15999,11 +15427,10 @@
         <v>0.21770370006561279</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16018,11 +15445,10 @@
         <v>1.409551128745079E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16037,11 +15463,10 @@
         <v>0.98541831970214844</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F576">
@@ -16059,11 +15484,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16078,11 +15502,10 @@
         <v>0.1157932281494141</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -16097,11 +15520,10 @@
         <v>0.97919845581054688</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F579">
@@ -16119,11 +15541,10 @@
         <v>0.98546808958053589</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F580">
@@ -16141,11 +15562,10 @@
         <v>0.98543143272399902</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16160,11 +15580,10 @@
         <v>1.4070584438741211E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16179,11 +15598,10 @@
         <v>2.9506685212254521E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16198,11 +15616,10 @@
         <v>2.9223095625638958E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16217,11 +15634,10 @@
         <v>3.955439105629921E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16236,11 +15652,10 @@
         <v>0.98502594232559204</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16255,11 +15670,10 @@
         <v>0.98252791166305542</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F587">
@@ -16277,11 +15691,10 @@
         <v>1.843202859163284E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16296,11 +15709,10 @@
         <v>2.146913297474384E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16315,11 +15727,10 @@
         <v>1.367857586592436E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16334,11 +15745,10 @@
         <v>1.409239694476128E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16353,11 +15763,10 @@
         <v>2.0811799913644791E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16372,11 +15781,10 @@
         <v>0.98530787229537964</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16391,11 +15799,10 @@
         <v>2.9260290786623951E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16410,11 +15817,10 @@
         <v>0.98543918132781982</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16429,11 +15835,10 @@
         <v>0.28636366128921509</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16448,11 +15853,10 @@
         <v>1.6091605648398399E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16467,11 +15871,10 @@
         <v>0.9854767918586731</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16486,11 +15889,10 @@
         <v>0.98413068056106567</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F599">
@@ -16508,11 +15910,10 @@
         <v>0.1192164570093155</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16527,11 +15928,10 @@
         <v>0.21741589903831479</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16546,11 +15946,10 @@
         <v>1.4042563736438749E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16565,11 +15964,10 @@
         <v>1.452223863452673E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16584,11 +15982,10 @@
         <v>1.46277341991663E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16603,11 +16000,10 @@
         <v>1.377778127789497E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16622,11 +16018,10 @@
         <v>1.3826968148350721E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16641,11 +16036,10 @@
         <v>1.3585370033979419E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16660,11 +16054,10 @@
         <v>1.4237695373594759E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16679,11 +16072,10 @@
         <v>2.3728901520371441E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16698,11 +16090,10 @@
         <v>4.0468946099281311E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16717,11 +16108,10 @@
         <v>4.8670567572116852E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16736,11 +16126,10 @@
         <v>1.4151701703667641E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16755,11 +16144,10 @@
         <v>1.362875569611788E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16774,11 +16162,10 @@
         <v>0.96561771631240845</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F614">
@@ -16796,11 +16183,10 @@
         <v>1.3723668642342091E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16815,11 +16201,10 @@
         <v>0.98544573783874512</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16834,11 +16219,10 @@
         <v>0.98548394441604614</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16853,11 +16237,10 @@
         <v>0.98548048734664917</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16872,11 +16255,10 @@
         <v>1.758660189807415E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16891,11 +16273,10 @@
         <v>3.159664198756218E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16910,11 +16291,10 @@
         <v>0.38992196321487432</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16929,11 +16309,10 @@
         <v>5.9063192456960678E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16948,11 +16327,10 @@
         <v>0.98541241884231567</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16967,11 +16345,10 @@
         <v>1.4768531545996669E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16986,11 +16363,10 @@
         <v>0.98547422885894775</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17005,11 +16381,10 @@
         <v>1.4082297682762149E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17024,11 +16399,10 @@
         <v>0.95862060785293579</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17043,11 +16417,10 @@
         <v>1.554153207689524E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17062,11 +16435,10 @@
         <v>0.98547506332397461</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17081,11 +16453,10 @@
         <v>1.5043710358440879E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17100,11 +16471,10 @@
         <v>3.7598900496959693E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17119,11 +16489,10 @@
         <v>3.666112944483757E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17138,11 +16507,10 @@
         <v>0.96797859668731689</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F633">
@@ -17160,11 +16528,10 @@
         <v>1.5468025580048559E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17179,11 +16546,10 @@
         <v>1.3838754035532469E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17198,11 +16564,10 @@
         <v>1.3787218369543551E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17217,11 +16582,10 @@
         <v>1.402677409350872E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17236,11 +16600,10 @@
         <v>1.434174738824368E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17255,11 +16618,10 @@
         <v>1.3918548822402951E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17274,11 +16636,10 @@
         <v>0.98546880483627319</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17293,11 +16654,10 @@
         <v>0.57909137010574341</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17312,11 +16672,10 @@
         <v>0.98547136783599854</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E705" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>1</v>
       </c>
     </row>
@@ -17331,11 +16690,10 @@
         <v>0.98547923564910889</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D706" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17350,11 +16708,10 @@
         <v>0.98547375202178955</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17369,11 +16726,10 @@
         <v>0.98543834686279297</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17388,11 +16744,10 @@
         <v>0.9854692816734314</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17407,11 +16762,10 @@
         <v>1.376407220959663E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17426,11 +16780,10 @@
         <v>0.98542767763137817</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F648">
@@ -17448,11 +16801,10 @@
         <v>3.6720540374517441E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17467,11 +16819,10 @@
         <v>0.98547571897506714</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F650">
@@ -17489,11 +16840,10 @@
         <v>1.370378490537405E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17508,11 +16858,10 @@
         <v>0.98546487092971802</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F652">
@@ -17530,11 +16879,10 @@
         <v>1.414471212774515E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17549,11 +16897,10 @@
         <v>3.9250504225492477E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17568,11 +16915,10 @@
         <v>0.98547947406768799</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F655">
@@ -17590,11 +16936,10 @@
         <v>1.394642889499664E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17609,11 +16954,10 @@
         <v>1.3792529702186579E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17628,11 +16972,10 @@
         <v>1.390070468187332E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17647,11 +16990,10 @@
         <v>1.473883166909218E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17666,11 +17008,10 @@
         <v>1.4561085030436519E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17685,11 +17026,10 @@
         <v>1.415087655186653E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17704,11 +17044,10 @@
         <v>1.408090721815825E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17723,11 +17062,10 @@
         <v>1.545228157192469E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17742,11 +17080,10 @@
         <v>1.4574659988284109E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17761,11 +17098,10 @@
         <v>0.97133070230484009</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F665">
@@ -17783,11 +17119,10 @@
         <v>0.98451358079910278</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17802,11 +17137,10 @@
         <v>1.6460491344332698E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17821,11 +17155,10 @@
         <v>0.21755459904670721</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17840,11 +17173,10 @@
         <v>0.113630585372448</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17859,11 +17191,10 @@
         <v>1.9747508689761158E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17878,11 +17209,10 @@
         <v>1.7971871420741081E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17897,11 +17227,10 @@
         <v>0.21756887435913089</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17916,11 +17245,10 @@
         <v>0.21755632758140561</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17935,11 +17263,10 @@
         <v>1.476574968546629E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17954,11 +17281,10 @@
         <v>1.3952836394309999E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17973,11 +17299,10 @@
         <v>1.3800341635942461E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17992,11 +17317,10 @@
         <v>1.3671288266777991E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18011,11 +17335,10 @@
         <v>1.3669963926076891E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18030,11 +17353,10 @@
         <v>1.4086476527154451E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18049,11 +17371,10 @@
         <v>1.4162217266857621E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18068,11 +17389,10 @@
         <v>1.411328185349703E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18087,11 +17407,10 @@
         <v>1.402833685278893E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18106,11 +17425,10 @@
         <v>0.9854775071144104</v>
       </c>
       <c r="D683">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E683">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F683">
@@ -18128,11 +17446,10 @@
         <v>0.96599411964416504</v>
       </c>
       <c r="D684">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E684">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F684">
@@ -18150,11 +17467,10 @@
         <v>2.0438451319932941E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18169,11 +17485,10 @@
         <v>1.4398594386875629E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18188,11 +17503,10 @@
         <v>1.4150384813547129E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18207,11 +17521,10 @@
         <v>1.427862513810396E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18226,11 +17539,10 @@
         <v>1.538541726768017E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18245,11 +17557,10 @@
         <v>0.97708648443222046</v>
       </c>
       <c r="D690">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E690">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F690">
@@ -18267,11 +17578,10 @@
         <v>2.1316509693861011E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18286,11 +17596,10 @@
         <v>0.97444891929626465</v>
       </c>
       <c r="D692">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E692">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18305,11 +17614,10 @@
         <v>0.1085484325885773</v>
       </c>
       <c r="D693">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18324,11 +17632,10 @@
         <v>1.508578658103943E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E694">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18343,11 +17650,10 @@
         <v>0.98529899120330811</v>
       </c>
       <c r="D695">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E695">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18362,11 +17668,10 @@
         <v>3.8240544497966773E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18381,11 +17686,10 @@
         <v>1.386113185435534E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18400,11 +17704,10 @@
         <v>0.98250490427017212</v>
       </c>
       <c r="D698">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E698">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F698">
@@ -18422,11 +17725,10 @@
         <v>1.3787270523607731E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18441,11 +17743,10 @@
         <v>1.5631258487701419E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18460,11 +17761,10 @@
         <v>1.46946283057332E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18479,11 +17779,10 @@
         <v>2.2088745608925819E-2</v>
       </c>
       <c r="D702">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18498,11 +17797,10 @@
         <v>0.85421472787857056</v>
       </c>
       <c r="D703">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E703">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F703">
@@ -18520,11 +17818,10 @@
         <v>2.0642166957259182E-2</v>
       </c>
       <c r="D704">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18539,11 +17836,10 @@
         <v>0.9773637056350708</v>
       </c>
       <c r="D705">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E705">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F705">
@@ -18561,11 +17857,10 @@
         <v>0.94930964708328247</v>
       </c>
       <c r="D706">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E706">
-        <f t="shared" ref="E706:E752" si="22">IF(ISBLANK(F706),D706,F706)</f>
         <v>0</v>
       </c>
       <c r="F706">
@@ -18583,11 +17878,10 @@
         <v>1.461474318057299E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D752" si="23">IF(C707&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D707:D752" si="11">IF(C707&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18602,11 +17896,10 @@
         <v>3.9362393319606781E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18621,11 +17914,10 @@
         <v>0.98543959856033325</v>
       </c>
       <c r="D709">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E709">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18640,11 +17932,10 @@
         <v>1.5290378592908381E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18659,11 +17950,10 @@
         <v>1.390707399696112E-2</v>
       </c>
       <c r="D711">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E711">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18678,11 +17968,10 @@
         <v>1.3864730484783649E-2</v>
       </c>
       <c r="D712">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18697,11 +17986,10 @@
         <v>1.368580851703882E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18716,11 +18004,10 @@
         <v>1.3688364066183571E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18735,11 +18022,10 @@
         <v>0.98546856641769409</v>
       </c>
       <c r="D715">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E715">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18754,11 +18040,10 @@
         <v>1.356757897883654E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18773,11 +18058,10 @@
         <v>1.3619388453662401E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18792,11 +18076,10 @@
         <v>0.98547005653381348</v>
       </c>
       <c r="D718">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E718">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18811,11 +18094,10 @@
         <v>3.8903139531612403E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18830,11 +18112,10 @@
         <v>0.98544508218765259</v>
       </c>
       <c r="D720">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E720">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18849,11 +18130,10 @@
         <v>0.98480093479156494</v>
       </c>
       <c r="D721">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E721">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18868,11 +18148,10 @@
         <v>1.6067985445261002E-2</v>
       </c>
       <c r="D722">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E722">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18887,11 +18166,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D723">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E723">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18906,11 +18184,10 @@
         <v>0.98494488000869751</v>
       </c>
       <c r="D724">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E724">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18925,11 +18202,10 @@
         <v>0.98543107509613037</v>
       </c>
       <c r="D725">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E725">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18944,11 +18220,10 @@
         <v>0.98546254634857178</v>
       </c>
       <c r="D726">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E726">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18963,11 +18238,10 @@
         <v>0.98547542095184326</v>
       </c>
       <c r="D727">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E727">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18982,11 +18256,10 @@
         <v>8.1781677901744843E-2</v>
       </c>
       <c r="D728">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E728">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19001,11 +18274,10 @@
         <v>2.3695345968008041E-2</v>
       </c>
       <c r="D729">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E729">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19020,11 +18292,10 @@
         <v>2.229616791009903E-2</v>
       </c>
       <c r="D730">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E730">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19039,11 +18310,10 @@
         <v>1.402967609465122E-2</v>
       </c>
       <c r="D731">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E731">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19058,11 +18328,10 @@
         <v>1.4993550255894659E-2</v>
       </c>
       <c r="D732">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E732">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19077,11 +18346,10 @@
         <v>0.98543268442153931</v>
       </c>
       <c r="D733">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E733">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19096,11 +18364,10 @@
         <v>1.3706040568649771E-2</v>
       </c>
       <c r="D734">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E734">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19115,11 +18382,10 @@
         <v>1.3813124969601629E-2</v>
       </c>
       <c r="D735">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E735">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19134,11 +18400,10 @@
         <v>1.3630237430334089E-2</v>
       </c>
       <c r="D736">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E736">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19153,11 +18418,10 @@
         <v>1.3787594623863701E-2</v>
       </c>
       <c r="D737">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E737">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19172,11 +18436,10 @@
         <v>0.98547989130020142</v>
       </c>
       <c r="D738">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E738">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19191,11 +18454,10 @@
         <v>1.364615187048912E-2</v>
       </c>
       <c r="D739">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E739">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19210,11 +18472,10 @@
         <v>1.9548540934920311E-2</v>
       </c>
       <c r="D740">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E740">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19229,11 +18490,10 @@
         <v>2.8534658253192902E-2</v>
       </c>
       <c r="D741">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E741">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19248,11 +18508,10 @@
         <v>1.385627686977386E-2</v>
       </c>
       <c r="D742">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E742">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19267,11 +18526,10 @@
         <v>1.399295125156641E-2</v>
       </c>
       <c r="D743">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E743">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19286,11 +18544,10 @@
         <v>1.3956497423350809E-2</v>
       </c>
       <c r="D744">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E744">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19305,11 +18562,10 @@
         <v>0.98547768592834473</v>
       </c>
       <c r="D745">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E745">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19324,11 +18580,10 @@
         <v>3.4227747470140457E-2</v>
       </c>
       <c r="D746">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E746">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19343,11 +18598,10 @@
         <v>2.5752026587724689E-2</v>
       </c>
       <c r="D747">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E747">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19362,11 +18616,10 @@
         <v>1.4040174894034861E-2</v>
       </c>
       <c r="D748">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E748">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19381,11 +18634,10 @@
         <v>1.368314959108829E-2</v>
       </c>
       <c r="D749">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E749">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19400,11 +18652,10 @@
         <v>1.388413272798061E-2</v>
       </c>
       <c r="D750">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E750">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19419,11 +18670,10 @@
         <v>0.98547124862670898</v>
       </c>
       <c r="D751">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E751">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F751">
@@ -19441,11 +18691,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D752">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E752">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F752">
